--- a/biology/Médecine/1272_en_santé_et_médecine/1272_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1272_en_santé_et_médecine/1272_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1272_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1272_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1272 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1272_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1272_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La « maladière de Saint-Michel », à Pontaubert, léproserie qui relevait jusqu'alors de la commanderie du Temple, passe sous la dépendance des frères hospitaliers[1].
-Une léproserie est attestée à Olliergues, en Auvergne[2].
-Première mention[3],[4] des sources de Soultzmatt en Alsace[5].
-La faculté de médecine de Paris décide que tout bachelier, le jour de sa réception, donnera à chacun des maîtres en exercice un bonnet carré qui sera porté « à la messe, aux réceptions, aux disputes ou thèses, et partout ailleurs où il conviendra à l'honneur de la Faculté de le porter[6] ».
-La menace, proférée par le chapitre des dominicains de Narbonne, de brûler les ouvrages de magie ou d'alchimie « atteste en négatif » le goût de certains frères pour ces disciplines[7].
-Édouard Ier, futur roi d'Angleterre, blessé à Acre d'une dague qu'on croit empoisonnée, est soigné par succion de la plaie, comme continueront de le prescrire Pietro d'Abano (1250-1316) ou Sante Arduino (es) (XVe siècle[8]).
-Guillaume de Saint-Amour refonde l'hôpital de sa ville natale, dans le comté de Bourgogne, et il en fait son légataire universel[9].
-Première mention de la maladrerie de Sion, dans le Valais, située paroisse Sainte-Marguerite, entre l'hôpital Saint-Jean et le Rhône[10].
-Fondation de l'hôpital Ali Bin Süleyman à Kastamonu en Anatolie[11].
-1271-1272 : Épidémie et famine dans le comté de Flandre[12].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La « maladière de Saint-Michel », à Pontaubert, léproserie qui relevait jusqu'alors de la commanderie du Temple, passe sous la dépendance des frères hospitaliers.
+Une léproserie est attestée à Olliergues, en Auvergne.
+Première mention, des sources de Soultzmatt en Alsace.
+La faculté de médecine de Paris décide que tout bachelier, le jour de sa réception, donnera à chacun des maîtres en exercice un bonnet carré qui sera porté « à la messe, aux réceptions, aux disputes ou thèses, et partout ailleurs où il conviendra à l'honneur de la Faculté de le porter ».
+La menace, proférée par le chapitre des dominicains de Narbonne, de brûler les ouvrages de magie ou d'alchimie « atteste en négatif » le goût de certains frères pour ces disciplines.
+Édouard Ier, futur roi d'Angleterre, blessé à Acre d'une dague qu'on croit empoisonnée, est soigné par succion de la plaie, comme continueront de le prescrire Pietro d'Abano (1250-1316) ou Sante Arduino (es) (XVe siècle).
+Guillaume de Saint-Amour refonde l'hôpital de sa ville natale, dans le comté de Bourgogne, et il en fait son légataire universel.
+Première mention de la maladrerie de Sion, dans le Valais, située paroisse Sainte-Marguerite, entre l'hôpital Saint-Jean et le Rhône.
+Fondation de l'hôpital Ali Bin Süleyman à Kastamonu en Anatolie.
+1271-1272 : Épidémie et famine dans le comté de Flandre.</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1272_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1272_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ibn al-Quff (en) achève son encyclopédie médicale, l'Al-shāfī fī al-ṭibb[13].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ibn al-Quff (en) achève son encyclopédie médicale, l'Al-shāfī fī al-ṭibb.</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1272_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1272_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fl. Francon de Luveyn, maître en médecine de la faculté de médecine de Paris[14].
-Avant 1272 : fl. Aimon Vetus, barbier à Longué en Anjou[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fl. Francon de Luveyn, maître en médecine de la faculté de médecine de Paris.
+Avant 1272 : fl. Aimon Vetus, barbier à Longué en Anjou.
 </t>
         </is>
       </c>
